--- a/ExcelReadCTests/DataTests/RenameOldKmatInNew_Test.xlsx
+++ b/ExcelReadCTests/DataTests/RenameOldKmatInNew_Test.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\Work\MS Visual Studio\1_MyApplication\ExcelReadC\ExcelReadC (Git)\ExcelReadCTests\DataTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11055"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23835" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>kmat</t>
   </si>
@@ -39,12 +34,6 @@
     <t>1111111100109</t>
   </si>
   <si>
-    <t>111121100109</t>
-  </si>
-  <si>
-    <t>11131100109</t>
-  </si>
-  <si>
     <t>1111100184</t>
   </si>
   <si>
@@ -102,35 +91,44 @@
     <t>Столбец2</t>
   </si>
   <si>
-    <t>920111121100109</t>
-  </si>
-  <si>
-    <t>920011131100109</t>
-  </si>
-  <si>
     <t>920001111100184</t>
   </si>
   <si>
-    <t>920000121100184</t>
-  </si>
-  <si>
-    <t>920000021100184</t>
-  </si>
-  <si>
-    <t>920000001100184</t>
-  </si>
-  <si>
-    <t>920000000100184</t>
-  </si>
-  <si>
-    <t>920000000000184</t>
+    <t>111111100109</t>
+  </si>
+  <si>
+    <t>920011111100109</t>
+  </si>
+  <si>
+    <t>11111100109</t>
+  </si>
+  <si>
+    <t>920301121100184</t>
+  </si>
+  <si>
+    <t>920130121100184</t>
+  </si>
+  <si>
+    <t>kmat_old</t>
+  </si>
+  <si>
+    <t>920130021100184</t>
+  </si>
+  <si>
+    <t>920130020100184</t>
+  </si>
+  <si>
+    <t>920130020000184</t>
+  </si>
+  <si>
+    <t>920300030000084</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +227,156 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -247,26 +394,16 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -285,7 +422,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -298,83 +435,13 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -386,34 +453,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" textRotation="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -425,24 +466,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -454,70 +479,17 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" textRotation="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,29 +505,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:J14" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:J14"/>
-  <tableColumns count="10">
-    <tableColumn id="11" name="group" dataDxfId="29"/>
-    <tableColumn id="8" name="count_group" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:K14" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:K14">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="11" name="group" dataDxfId="27"/>
+    <tableColumn id="8" name="count_group" dataDxfId="26">
       <calculatedColumnFormula>LEN(table1[[#This Row],[group]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ceh" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="count_ceh" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="9" name="ceh" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" name="Столбец1" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="count_ceh" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>LEN(table1[[#This Row],[ceh]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="kmat" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="count_kmat" dataDxfId="11" totalsRowDxfId="12">
+    <tableColumn id="10" name="kmat_old" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="count_kmat" dataDxfId="19" totalsRowDxfId="18">
+      <calculatedColumnFormula>LEN(table1[[#This Row],[kmat_old]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="kmat" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="Столбец2" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>LEN(table1[[#This Row],[kmat]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Столбец1" dataDxfId="2" totalsRowDxfId="16"/>
-    <tableColumn id="5" name="Столбец2" dataDxfId="0" totalsRowDxfId="3">
-      <calculatedColumnFormula>LEN(table1[[#This Row],[Столбец1]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="1" totalsRowDxfId="21">
+    <tableColumn id="12" name="count_ceh_kmat" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="count_all" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="3" name="count_all" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -606,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,10 +613,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,7 +647,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -849,62 +822,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17"/>
+    <col min="8" max="8" width="22" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -913,36 +889,37 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="4"/>
+      <c r="E2" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>13</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I2" s="7">
+        <v>15</v>
+      </c>
+      <c r="J2" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -951,36 +928,37 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="4"/>
+      <c r="E3" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>12</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I3" s="7">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>16</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -989,36 +967,37 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="4"/>
+      <c r="E4" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>11</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -1027,36 +1006,37 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="4"/>
+      <c r="E5" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>14</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -1065,36 +1045,37 @@
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="4"/>
+      <c r="E6" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
         <v>9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>9</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>13</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
@@ -1103,320 +1084,331 @@
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4"/>
+      <c r="E7" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="F7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>8</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I7" s="8">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="F8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>7</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I8" s="8">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I10" s="8">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>10</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I11" s="8">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>9</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>15</v>
-      </c>
-      <c r="I12" s="8">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>5</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>3</v>
-      </c>
-      <c r="I13" s="8">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11">
         <f>LEN(table1[[#This Row],[group]])</f>
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11">
         <f>LEN(table1[[#This Row],[ceh]])</f>
         <v>6</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <f>LEN(table1[[#This Row],[kmat_old]])</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="16">
-        <f>LEN(table1[[#This Row],[Столбец1]])</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="8">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8">
         <f>table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>8</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f>table1[[#This Row],[count_group]]+table1[[#This Row],[count_ceh]]+table1[[#This Row],[count_kmat]]</f>
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3 E5:E7">
+  <conditionalFormatting sqref="F4">
     <cfRule type="duplicateValues" dxfId="9" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="duplicateValues" dxfId="8" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F2:F3 F5:F7">
+    <cfRule type="duplicateValues" dxfId="8" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F8:F14">
+    <cfRule type="duplicateValues" dxfId="7" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H3 G5:H7">
+  <conditionalFormatting sqref="H4:I4">
     <cfRule type="duplicateValues" dxfId="6" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:H14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H2:I3 H5:I7">
+    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 G1:H1">
-    <cfRule type="duplicateValues" dxfId="4" priority="30" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H8:I14">
+    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 H1:I1">
+    <cfRule type="duplicateValues" dxfId="3" priority="31" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H1048576 I1:I14">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
